--- a/xls/14048-108-240007671_2.xlsx
+++ b/xls/14048-108-240007671_2.xlsx
@@ -963,12 +963,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์</t>
+          <t>ค่าวิสัญญีแพทย์</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1139,12 +1139,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ค่าวิสัญญูแพทย์ (เปลี่ยนอวัยวะ)</t>
+          <t>ค่าวิสัญญีแพทย์ (เปลี่ยนอวัยวะ)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>อุบัติเหตุฉุกเฉิน (ER Accident)</t>
+          <t>อุบัติเหตุฉุกเฉิน (ER Accidenl)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1403,12 +1403,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์เพื่อล้างโตผ่านทางเส้นเลือด</t>
+          <t>ค่าบริการทางการแพทย์เพื่อสำอางโตผ่านทางเดินเลือด</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ค่าบริการทางการแพทย์โดยเคมีบำบัด</t>
+          <t>ค่าบริการทางการแพทย์ โดยเคมีบำบัด</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">

--- a/xls/14048-108-240007671_2.xlsx
+++ b/xls/14048-108-240007671_2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qahive/Documents/TyphoonOCR/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B16F5A-F689-0243-9B83-10E2DC445DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3042AFDF-62F1-BA49-AA78-B605467B646E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Member Co-Pay" sheetId="1" r:id="rId1"/>
+    <sheet name="Insured Co-Pay" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="82">
   <si>
     <t>Policy No</t>
   </si>
@@ -64,7 +65,7 @@
     <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรงพยาบาล</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>Null</t>
   </si>
   <si>
     <t>1,600.00 Per Day / 31 Day Per Disability</t>
@@ -73,12 +74,6 @@
     <t>ค่าห้องผู้ป่วยปกติ ค่าอาหาร และค่าบริการในโรง พยาบาล</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -100,9 +95,6 @@
     <t>40,000.00 Per Disability</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -112,9 +104,6 @@
     <t>ค่าบริการทางการแพทย์เพื่อการบำบัดรักษา คำบริการ โลหิตและส่วนประกอบของโลหิต และค่าบริการทางการ พยาบาล</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -124,9 +113,6 @@
     <t>ค่ายา ค่าสารอาหารทางหลอดเลือด และค่าวเชียกันธ์</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -136,9 +122,6 @@
     <t>ค่ายา ค่าเวชภัณฑ์สิ้นเปลือง (เวชภัณฑ์ 1) สำหรับกลับ บ้าน</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -163,9 +146,6 @@
     <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การผ่าตัดและหัตถการ</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -196,9 +176,6 @@
     <t>ค่ายา ค่าสารอาหารทางหลอดเลือด ค่าเวชภัณฑ์ และค่า อุปกรณ์การผ่าตัดและหัตถการ (เปลี่ยนอวัยวะ)</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -244,9 +221,6 @@
     <t>อุบัติเหตุฉุกเฉิน (ER Accidenl)</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -262,10 +236,7 @@
     <t>10,000.00 Per Year</t>
   </si>
   <si>
-    <t>ค่าบริการทางการแพทย์เพื่อล้างโตผ่านทางเส้นเลือด</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>ค่าบริการทางการแพทย์เพื่อสำอางโตผ่านทางเดินเลือด</t>
   </si>
   <si>
     <t>22</t>
@@ -277,9 +248,6 @@
     <t>ค่าบริการทางการแพทย์ โดยรังสีรักษา เวชศาสตร์ นิวเคลียร์</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -296,6 +264,9 @@
   </si>
   <si>
     <t>ค่ารักษาพยาบาล โดยการผ่าตัดเล็ก (Minor Surgery)</t>
+  </si>
+  <si>
+    <t>Insured Co-Pay</t>
   </si>
 </sst>
 </file>
@@ -661,19 +632,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="88.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="31.1640625" customWidth="1"/>
-    <col min="8" max="8" width="89.5" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="88.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="86.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -733,635 +702,824 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>99</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3">
+        <v>99</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+      <c r="I5">
+        <v>97</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6">
+        <v>88</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I7">
+        <v>99</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D9" t="s">
         <v>37</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="I10">
+        <v>99</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="I10" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
         <v>50</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>52</v>
       </c>
-      <c r="I12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
         <v>54</v>
       </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
+      <c r="D18" t="s">
         <v>58</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I18">
+        <v>93</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="I19">
+        <v>99</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I20">
+        <v>96</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="I18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21">
+        <v>100</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
         <v>71</v>
       </c>
-      <c r="D20" t="s">
+      <c r="I22">
+        <v>88</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="D23" t="s">
         <v>73</v>
       </c>
-      <c r="I20" t="s">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
         <v>74</v>
       </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+      <c r="I23">
+        <v>99</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>76</v>
       </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
         <v>76</v>
       </c>
-      <c r="I21" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+      <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>77</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D25" t="s">
         <v>78</v>
       </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25">
+        <v>100</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="I22" t="s">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-      <c r="I25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
